--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-13-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-13-ava-matc65.xlsx
@@ -455,22 +455,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -702,19 +702,19 @@
         <v>220117484</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -784,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1214,7 +1214,7 @@
         <v>221117651</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1389,16 +1389,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1511,22 +1511,22 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1598,7 +1598,7 @@
         <v>219119774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1758,31 +1758,31 @@
         <v>221117685</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
